--- a/item_calorie_dict.xlsx
+++ b/item_calorie_dict.xlsx
@@ -41,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -71,11 +71,17 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -83,11 +89,82 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -392,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F285"/>
+  <dimension ref="A1:F287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -401,32 +478,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>food_item</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>measure</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>calories</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>protein</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>fats</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>carbohydrates</t>
         </is>
@@ -7198,6 +7275,54 @@
       </c>
       <c r="F285" t="n">
         <v>9.9</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>vanilla extract</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1 tsp</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>12</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>egg pakoda appe style</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1 serving</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>294.4</v>
+      </c>
+      <c r="D287" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E287" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F287" t="n">
+        <v>21.2</v>
       </c>
     </row>
   </sheetData>

--- a/item_calorie_dict.xlsx
+++ b/item_calorie_dict.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F284"/>
+  <dimension ref="A1:F288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7253,6 +7253,102 @@
         <v>9.9</v>
       </c>
     </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>whole wheat pizza crust</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>390</v>
+      </c>
+      <c r="D285" t="n">
+        <v>12</v>
+      </c>
+      <c r="E285" t="n">
+        <v>6</v>
+      </c>
+      <c r="F285" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>firm tofu</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1 block</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>320</v>
+      </c>
+      <c r="D286" t="n">
+        <v>40</v>
+      </c>
+      <c r="E286" t="n">
+        <v>20</v>
+      </c>
+      <c r="F286" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>filter coffee mocha</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1 serving</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="E287" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="F287" t="n">
+        <v>57.86</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>indian style vegan tofu pizza</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1 serving</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>424</v>
+      </c>
+      <c r="D288" t="n">
+        <v>25</v>
+      </c>
+      <c r="E288" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F288" t="n">
+        <v>54.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/item_calorie_dict.xlsx
+++ b/item_calorie_dict.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F288"/>
+  <dimension ref="A1:F291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7349,6 +7349,78 @@
         <v>54.75</v>
       </c>
     </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>caramel popcorn with cashews</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>0.33 cup</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>120</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1</v>
+      </c>
+      <c r="E289" t="n">
+        <v>6</v>
+      </c>
+      <c r="F289" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>skinny popcorn</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1 cup</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>40</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="E290" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F290" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>kala chana onion tomato salad</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1 serving</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>75.845</v>
+      </c>
+      <c r="D291" t="n">
+        <v>5.657500000000001</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F291" t="n">
+        <v>10.7075</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/item_calorie_dict.xlsx
+++ b/item_calorie_dict.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F291"/>
+  <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7421,6 +7421,174 @@
         <v>10.7075</v>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>High Protein Soya Chunks Dosa</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1 serving</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>104.7083333333333</v>
+      </c>
+      <c r="D292" t="n">
+        <v>4.3125</v>
+      </c>
+      <c r="E292" t="n">
+        <v>2.291666666666667</v>
+      </c>
+      <c r="F292" t="n">
+        <v>15.27083333333333</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Ragada Pattice</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1 serving</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>300.2916666666667</v>
+      </c>
+      <c r="D293" t="n">
+        <v>13.95833333333333</v>
+      </c>
+      <c r="E293" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="F293" t="n">
+        <v>64.66666666666667</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>spring onion</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1 stalk</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0</v>
+      </c>
+      <c r="F294" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Spring onion Tambali</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1 serving</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>62.625</v>
+      </c>
+      <c r="D295" t="n">
+        <v>2.5625</v>
+      </c>
+      <c r="E295" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F295" t="n">
+        <v>5.625</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>goji berry apple smoothie</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1 serving</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>222.75</v>
+      </c>
+      <c r="D296" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="E296" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="F296" t="n">
+        <v>34.125</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>sunfeast 5 grain digestive</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>2 biscuits</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>97</v>
+      </c>
+      <c r="D297" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E297" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F297" t="n">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>vegan blueberry no bake cheesecake</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1 serving</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>438.4583333333333</v>
+      </c>
+      <c r="D298" t="n">
+        <v>5.583333333333333</v>
+      </c>
+      <c r="E298" t="n">
+        <v>10.79166666666667</v>
+      </c>
+      <c r="F298" t="n">
+        <v>74.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/item_calorie_dict.xlsx
+++ b/item_calorie_dict.xlsx
@@ -2,32 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6996" yWindow="2004" windowWidth="23040" windowHeight="12204" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -41,27 +37,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -74,19 +55,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -169,44 +147,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -233,32 +211,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -285,24 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -314,142 +256,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -459,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F302"/>
+  <dimension ref="A1:F310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,32 +434,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>food_item</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>measure</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>calories</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>protein</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>fats</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>carbohydrates</t>
         </is>
@@ -2278,7 +2244,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>kellogg's Special K Red Berries Cereal</t>
+          <t>kellogg's special k red berries cereal</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3094,7 +3060,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Kirkland salted mixed nuts</t>
+          <t>kirkland salted mixed nuts</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -7673,6 +7639,198 @@
       </c>
       <c r="F302" t="n">
         <v>203.75</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>planet oat creamer</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1 tbsp</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>25</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1</v>
+      </c>
+      <c r="F303" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>veer ginger garlic paste</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1 tbsp</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>170</v>
+      </c>
+      <c r="D304" t="n">
+        <v>4</v>
+      </c>
+      <c r="E304" t="n">
+        <v>8</v>
+      </c>
+      <c r="F304" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>mtr tomato rice powder</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1 pack</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E305" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F305" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>tomato millet with powder</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1 serving</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>323.3333333333333</v>
+      </c>
+      <c r="D306" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E306" t="n">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="F306" t="n">
+        <v>42.33333333333334</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>coffee with oat creamer</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1 serving</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>50</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
+      <c r="E307" t="n">
+        <v>2</v>
+      </c>
+      <c r="F307" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>red apple pear orange smoothie no yogurt</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1 serving</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>253.75</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="E308" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F308" t="n">
+        <v>58.625</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>mtr lemon rice powder</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1 pack</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>57</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E309" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F309" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>capsicum besan sabji</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1 serving</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>263.48</v>
+      </c>
+      <c r="D310" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="E310" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="F310" t="n">
+        <v>25.24</v>
       </c>
     </row>
   </sheetData>

--- a/item_calorie_dict.xlsx
+++ b/item_calorie_dict.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F310"/>
+  <dimension ref="A1:F307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,425 +578,431 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>green pear</t>
+          <t>pitted date</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>0.676</v>
+        <v>0.2</v>
       </c>
       <c r="E7" t="n">
-        <v>0.285</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>26.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>large banana</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="D8" t="n">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="F8" t="n">
-        <v>23</v>
+        <v>31.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pitted date</t>
+          <t>marie biscuit</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.5833</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>4.167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>large banana</t>
+          <t>khakra</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="D10" t="n">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>0.45</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>31.06</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>marie biscuit</t>
+          <t>green capsicum</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5</v>
+        <v>1.41</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5833</v>
+        <v>0.28</v>
       </c>
       <c r="F11" t="n">
-        <v>4.167</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>khakra</t>
+          <t>frozen roti</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>green capsicum</t>
+          <t>red bell pepper</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D13" t="n">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="E13" t="n">
-        <v>0.28</v>
+        <v>0.49</v>
       </c>
       <c r="F13" t="n">
-        <v>7.61</v>
+        <v>9.890000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>frozen roti</t>
+          <t>apple</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>0.36</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>0.23</v>
       </c>
       <c r="F14" t="n">
-        <v>25</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>red bell pepper</t>
+          <t>digestive lite</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D15" t="n">
-        <v>1.62</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.49</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>9.890000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>fried egg</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D16" t="n">
-        <v>0.36</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>0.23</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
-        <v>19.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>digestive lite</t>
+          <t>eggplant</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>fried egg</t>
+          <t>cinnamon stick</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>90</v>
+        <v>3.2</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>0.1</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>eggplant</t>
+          <t>clove</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>165</v>
+        <v>0.5</v>
       </c>
       <c r="D19" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>39</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>cinnamon stick</t>
+          <t>garlic clove</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F20" t="n">
-        <v>1.1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>clove</t>
+          <t>mini bell pepper</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>garlic clove</t>
+          <t>baby carrot</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D22" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>mini bell pepper</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
+          <t>date moon cake</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>8.699999999999999</v>
+        <v>330</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1</v>
+        <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>1.7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>baby carrot</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
+          <t>cashew pieces</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>avocado</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
+          <t>generic chana dal wada</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C25" t="n">
-        <v>320</v>
+        <v>87</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>29.4</v>
+        <v>6.1</v>
       </c>
       <c r="F25" t="n">
-        <v>17</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>date moon cake</t>
+          <t>small banana</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1005,22 +1011,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>1.1</v>
       </c>
       <c r="E26" t="n">
-        <v>12</v>
+        <v>0.3</v>
       </c>
       <c r="F26" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>cashew pieces</t>
+          <t>heart healthy nuts pack</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1029,22 +1035,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7</v>
+        <v>13</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>generic chana dal wada</t>
+          <t>dairy milk wholenut bar</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1053,22 +1059,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="E28" t="n">
-        <v>6.1</v>
+        <v>15.3</v>
       </c>
       <c r="F28" t="n">
-        <v>6.1</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>small banana</t>
+          <t>restaurant laccha paratha</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1077,22 +1083,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="D29" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>heart healthy nuts pack</t>
+          <t>jalebi</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1101,22 +1107,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="E30" t="n">
-        <v>13</v>
+        <v>2.2</v>
       </c>
       <c r="F30" t="n">
-        <v>13</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>dairy milk wholenut bar</t>
+          <t>cherry tomato</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1125,22 +1131,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>3.7</v>
+        <v>0.15</v>
       </c>
       <c r="E31" t="n">
-        <v>15.3</v>
+        <v>0.03</v>
       </c>
       <c r="F31" t="n">
-        <v>22.5</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>restaurant laccha paratha</t>
+          <t>strawberry</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1149,22 +1155,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>210</v>
+        <v>3.8</v>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>27</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>jalebi</t>
+          <t>restaurant tandoori roti</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1173,22 +1179,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2</v>
+        <v>6</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>5.6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>cherry tomato</t>
+          <t>oat and chocolate digestive</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1197,214 +1203,214 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="D34" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03</v>
+        <v>3.5</v>
       </c>
       <c r="F34" t="n">
-        <v>0.67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>strawberry</t>
+          <t>baklava piece</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve">1 </t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3.8</v>
+        <v>306</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1</v>
+        <v>5.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>restaurant tandoori roti</t>
+          <t>blueberry</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1 box</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>2.97</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="F36" t="n">
-        <v>28</v>
+        <v>58.25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>oat and chocolate digestive</t>
+          <t>movie large popcorn</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1 bucket</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>70</v>
+        <v>1120</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E37" t="n">
-        <v>3.5</v>
+        <v>77</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>baklava piece</t>
+          <t>jackfruit</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 </t>
+          <t>1 bulb</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>306</v>
+        <v>18.6</v>
       </c>
       <c r="D38" t="n">
-        <v>5.5</v>
+        <v>0.3</v>
       </c>
       <c r="E38" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>29</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>blueberry</t>
+          <t>coriander leaves</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1 box</t>
+          <t>1 bunch</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>229</v>
+        <v>10</v>
       </c>
       <c r="D39" t="n">
-        <v>2.97</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1.33</v>
+        <v>0.3</v>
       </c>
       <c r="F39" t="n">
-        <v>58.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>movie large popcorn</t>
+          <t>dahi</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1 bucket</t>
+          <t>1 cup</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1120</v>
+        <v>150</v>
       </c>
       <c r="D40" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E40" t="n">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>jackfruit</t>
+          <t>barnyard millet</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1 bulb</t>
+          <t>1 cup</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>18.6</v>
+        <v>756</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3</v>
+        <v>22</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F41" t="n">
-        <v>4.7</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>coriander leaves</t>
+          <t>urad dal</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1 bunch</t>
+          <t>1 cup</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>10</v>
+        <v>735</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>dahi</t>
+          <t>thin poha</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1413,22 +1419,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>150</v>
+        <v>394</v>
       </c>
       <c r="D43" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>0.6</v>
       </c>
       <c r="F43" t="n">
-        <v>14</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>barnyard millet</t>
+          <t>greek yoghurt</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1437,22 +1443,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>756</v>
+        <v>160</v>
       </c>
       <c r="D44" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E44" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>146</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>urad dal</t>
+          <t>spinach</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1461,22 +1467,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>735</v>
+        <v>7</v>
       </c>
       <c r="D45" t="n">
-        <v>48</v>
+        <v>0.9</v>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="F45" t="n">
-        <v>124</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>thin poha</t>
+          <t>garbanzo beans</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1485,22 +1491,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>394</v>
+        <v>729</v>
       </c>
       <c r="D46" t="n">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="F46" t="n">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>greek yoghurt</t>
+          <t>aashirvaad multigrain atta</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1509,22 +1515,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>160</v>
+        <v>390</v>
       </c>
       <c r="D47" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>spinach</t>
+          <t>yellow moong dal</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1533,22 +1539,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>7</v>
+        <v>351</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9</v>
+        <v>25</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>1.1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>garbanzo beans</t>
+          <t>frozen carrots and peas</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1557,22 +1563,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>729</v>
+        <v>74</v>
       </c>
       <c r="D49" t="n">
-        <v>15</v>
+        <v>4.76</v>
       </c>
       <c r="E49" t="n">
-        <v>4.2</v>
+        <v>0.66</v>
       </c>
       <c r="F49" t="n">
-        <v>45</v>
+        <v>15.61</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>aashirvaad multigrain atta</t>
+          <t>mixed berries</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1581,22 +1587,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>390</v>
+        <v>70</v>
       </c>
       <c r="D50" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F50" t="n">
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>yellow moong dal</t>
+          <t>unsweetened almond milk</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1605,22 +1611,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>351</v>
+        <v>30</v>
       </c>
       <c r="D51" t="n">
-        <v>25</v>
+        <v>1.1</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="F51" t="n">
-        <v>60</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>frozen carrots and peas</t>
+          <t>sweetened oat milk</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1629,22 +1635,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="D52" t="n">
-        <v>4.76</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>0.66</v>
+        <v>5</v>
       </c>
       <c r="F52" t="n">
-        <v>15.61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>mixed berries</t>
+          <t>masoor dal</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1653,22 +1659,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>70</v>
+        <v>649</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>17</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>unsweetened almond milk</t>
+          <t>roasted semolina</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1677,22 +1683,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>30</v>
+        <v>601</v>
       </c>
       <c r="D54" t="n">
-        <v>1.1</v>
+        <v>21.18</v>
       </c>
       <c r="E54" t="n">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="F54" t="n">
-        <v>1.1</v>
+        <v>121.63</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>sweetened oat milk</t>
+          <t>whole wheat pasta</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1701,22 +1707,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>9.6</v>
       </c>
       <c r="E55" t="n">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="F55" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>masoor dal</t>
+          <t>mushroom</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1725,22 +1731,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>649</v>
+        <v>44</v>
       </c>
       <c r="D56" t="n">
-        <v>42</v>
+        <v>3.4</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="F56" t="n">
-        <v>110</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>roasted semolina</t>
+          <t>green beans</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1749,22 +1755,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>601</v>
+        <v>44</v>
       </c>
       <c r="D57" t="n">
-        <v>21.18</v>
+        <v>2.4</v>
       </c>
       <c r="E57" t="n">
-        <v>1.75</v>
+        <v>0.3</v>
       </c>
       <c r="F57" t="n">
-        <v>121.63</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>whole wheat pasta</t>
+          <t>spring mix</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1773,22 +1779,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>238</v>
+        <v>9</v>
       </c>
       <c r="D58" t="n">
-        <v>9.6</v>
+        <v>0.8</v>
       </c>
       <c r="E58" t="n">
-        <v>2.7</v>
+        <v>0.1</v>
       </c>
       <c r="F58" t="n">
-        <v>48</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>mushroom</t>
+          <t>vatana</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1797,22 +1803,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="D59" t="n">
-        <v>3.4</v>
+        <v>36</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>8.300000000000001</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>green beans</t>
+          <t>mung bean sprouts</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1821,22 +1827,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D60" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F60" t="n">
-        <v>9.9</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>spring mix</t>
+          <t>shredded coconut</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1845,22 +1851,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>9</v>
+        <v>388</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1</v>
+        <v>24</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>vatana</t>
+          <t>roasted dalia</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1869,22 +1875,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>400</v>
+        <v>333.3</v>
       </c>
       <c r="D62" t="n">
-        <v>36</v>
+        <v>21.2</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F62" t="n">
-        <v>96</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>mung bean sprouts</t>
+          <t>toor dal</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1893,22 +1899,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>31</v>
+        <v>480</v>
       </c>
       <c r="D63" t="n">
-        <v>3.2</v>
+        <v>32</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>6.2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>shredded coconut</t>
+          <t>pumpkin</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1917,22 +1923,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>388</v>
+        <v>30</v>
       </c>
       <c r="D64" t="n">
-        <v>2.7</v>
+        <v>1.16</v>
       </c>
       <c r="E64" t="n">
-        <v>24</v>
+        <v>0.12</v>
       </c>
       <c r="F64" t="n">
-        <v>44</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>roasted dalia</t>
+          <t>diet bhel</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1941,22 +1947,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>333.3</v>
+        <v>150</v>
       </c>
       <c r="D65" t="n">
-        <v>21.2</v>
+        <v>3</v>
       </c>
       <c r="E65" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="F65" t="n">
-        <v>51.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>toor dal</t>
+          <t>kala chana</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1965,22 +1971,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>480</v>
+        <v>393.9</v>
       </c>
       <c r="D66" t="n">
-        <v>32</v>
+        <v>18.2</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="F66" t="n">
-        <v>88</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>pumpkin</t>
+          <t>bajra flour</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1989,22 +1995,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>30</v>
+        <v>756</v>
       </c>
       <c r="D67" t="n">
-        <v>1.16</v>
+        <v>22</v>
       </c>
       <c r="E67" t="n">
-        <v>0.12</v>
+        <v>8.4</v>
       </c>
       <c r="F67" t="n">
-        <v>7.54</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>diet bhel</t>
+          <t xml:space="preserve">ragi flour </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2013,22 +2019,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>150</v>
+        <v>440</v>
       </c>
       <c r="D68" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E68" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
-        <v>15</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>kala chana</t>
+          <t>quinoa</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2037,22 +2043,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>393.9</v>
+        <v>626</v>
       </c>
       <c r="D69" t="n">
-        <v>18.2</v>
+        <v>24</v>
       </c>
       <c r="E69" t="n">
-        <v>6.1</v>
+        <v>10.3</v>
       </c>
       <c r="F69" t="n">
-        <v>63.6</v>
+        <v>109.1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>bajra flour</t>
+          <t>sooji</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2061,22 +2067,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>756</v>
+        <v>692</v>
       </c>
       <c r="D70" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E70" t="n">
-        <v>8.4</v>
+        <v>4</v>
       </c>
       <c r="F70" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">ragi flour </t>
+          <t>rice flour</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2085,22 +2091,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D71" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="E71" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="F71" t="n">
-        <v>88</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>quinoa</t>
+          <t>vermicelli</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2109,22 +2115,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>626</v>
+        <v>220</v>
       </c>
       <c r="D72" t="n">
-        <v>24</v>
+        <v>8.07</v>
       </c>
       <c r="E72" t="n">
-        <v>10.3</v>
+        <v>1.29</v>
       </c>
       <c r="F72" t="n">
-        <v>109.1</v>
+        <v>42.95</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>sooji</t>
+          <t>methi leaves</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2133,22 +2139,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>692</v>
+        <v>60</v>
       </c>
       <c r="D73" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>144</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>rice flour</t>
+          <t>besan</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2157,22 +2163,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>578</v>
+        <v>356</v>
       </c>
       <c r="D74" t="n">
-        <v>9.4</v>
+        <v>21</v>
       </c>
       <c r="E74" t="n">
-        <v>2.2</v>
+        <v>6.2</v>
       </c>
       <c r="F74" t="n">
-        <v>127</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>vermicelli</t>
+          <t>kellogg's special k red berries cereal</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2181,22 +2187,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="D75" t="n">
-        <v>8.07</v>
+        <v>3</v>
       </c>
       <c r="E75" t="n">
-        <v>1.29</v>
+        <v>0.5</v>
       </c>
       <c r="F75" t="n">
-        <v>42.95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>methi leaves</t>
+          <t>ragu pizza sauce</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2205,22 +2211,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>besan</t>
+          <t>black beans</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2229,22 +2235,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>356</v>
+        <v>661.5</v>
       </c>
       <c r="D77" t="n">
-        <v>21</v>
+        <v>41.9</v>
       </c>
       <c r="E77" t="n">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="F77" t="n">
-        <v>53</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>kellogg's special k red berries cereal</t>
+          <t>blueberries</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2253,22 +2259,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="E78" t="n">
         <v>0.5</v>
       </c>
       <c r="F78" t="n">
-        <v>34</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ragu pizza sauce</t>
+          <t>raspberries</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2277,22 +2283,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="D79" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="F79" t="n">
-        <v>20</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>black beans</t>
+          <t>sliced mushrooms</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2301,22 +2307,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>661.5</v>
+        <v>15</v>
       </c>
       <c r="D80" t="n">
-        <v>41.9</v>
+        <v>2.2</v>
       </c>
       <c r="E80" t="n">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="F80" t="n">
-        <v>121</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>blueberries</t>
+          <t>lotus seeds</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2325,22 +2331,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D81" t="n">
-        <v>1.1</v>
+        <v>4.9</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F81" t="n">
-        <v>21.4</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>raspberries</t>
+          <t>small brinjal</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2349,22 +2355,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D82" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="F82" t="n">
-        <v>14.7</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>sliced mushrooms</t>
+          <t>gluten free all purpose flour</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2373,22 +2379,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="D83" t="n">
-        <v>2.2</v>
+        <v>12</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
-        <v>1.6</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>lotus seeds</t>
+          <t>soya chunks</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2397,22 +2403,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="D84" t="n">
-        <v>4.9</v>
+        <v>24</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>20.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>small brinjal</t>
+          <t>restaurant bhindi fry</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2421,22 +2427,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="E85" t="n">
-        <v>0.2</v>
+        <v>17</v>
       </c>
       <c r="F85" t="n">
-        <v>8.6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>gluten free all purpose flour</t>
+          <t>white rice</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2445,22 +2451,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>400</v>
+        <v>716</v>
       </c>
       <c r="D86" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>88</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>soya chunks</t>
+          <t>collard greens</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2469,118 +2475,118 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="D87" t="n">
-        <v>24</v>
+        <v>4.1</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="F87" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>restaurant bhindi fry</t>
+          <t>corn</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1 cup</t>
+          <t>1 ear</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="D88" t="n">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="E88" t="n">
-        <v>17</v>
+        <v>1.9</v>
       </c>
       <c r="F88" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>white rice</t>
+          <t>potato</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1 cup</t>
+          <t>1 large</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>716</v>
+        <v>278</v>
       </c>
       <c r="D89" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F89" t="n">
-        <v>158</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>collard greens</t>
+          <t>cucumber</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1 cup</t>
+          <t>1 large</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D90" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="E90" t="n">
-        <v>4.3</v>
+        <v>0.3</v>
       </c>
       <c r="F90" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>corn</t>
+          <t>nectarine</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1 ear</t>
+          <t>1 large</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="D91" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="E91" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="F91" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>potato</t>
+          <t>peach</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2589,262 +2595,262 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>278</v>
+        <v>68</v>
       </c>
       <c r="D92" t="n">
-        <v>7.5</v>
+        <v>1.6</v>
       </c>
       <c r="E92" t="n">
         <v>0.4</v>
       </c>
       <c r="F92" t="n">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>cucumber</t>
+          <t>top ramen masala noodles</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1 large</t>
+          <t>1 pack</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="D93" t="n">
-        <v>1.8</v>
+        <v>5.34</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3</v>
+        <v>11.22</v>
       </c>
       <c r="F93" t="n">
-        <v>10</v>
+        <v>38.76</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>nectarine</t>
+          <t>maggie masala noodles</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1 large</t>
+          <t>1 pack</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>69</v>
+        <v>310</v>
       </c>
       <c r="D94" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="F94" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>peach</t>
+          <t>multigrain pav</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1 large</t>
+          <t>1 piece</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="D95" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4</v>
+        <v>0.57</v>
       </c>
       <c r="F95" t="n">
-        <v>17</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>top ramen masala noodles</t>
+          <t>generic samosa chaat</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1 pack</t>
+          <t>1 plate</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="D96" t="n">
-        <v>5.34</v>
+        <v>8.6</v>
       </c>
       <c r="E96" t="n">
-        <v>11.22</v>
+        <v>14.2</v>
       </c>
       <c r="F96" t="n">
-        <v>38.76</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>maggie masala noodles</t>
+          <t>whole wheat bread</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1 pack</t>
+          <t>1 slice</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="D97" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E97" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>multigrain pav</t>
+          <t>rasmalai cake slice</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1 piece</t>
+          <t>1 slice</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>111</v>
+        <v>408</v>
       </c>
       <c r="D98" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="E98" t="n">
-        <v>0.57</v>
+        <v>27</v>
       </c>
       <c r="F98" t="n">
-        <v>21.73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>generic samosa chaat</t>
+          <t>blaze pizza vegan with red and green sauce</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1 plate</t>
+          <t>1 slice</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>292</v>
+        <v>120</v>
       </c>
       <c r="D99" t="n">
-        <v>8.6</v>
+        <v>3</v>
       </c>
       <c r="E99" t="n">
-        <v>14.2</v>
+        <v>4</v>
       </c>
       <c r="F99" t="n">
-        <v>29.8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>whole wheat bread</t>
+          <t>amchoor</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1 slice</t>
+          <t>1 tbsp</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="D100" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>rasmalai cake slice</t>
+          <t>cocoa</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1 slice</t>
+          <t>1 tbsp</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>408</v>
+        <v>10</v>
       </c>
       <c r="D101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>27</v>
+        <v>0.5</v>
       </c>
       <c r="F101" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>blaze pizza vegan with red and green sauce</t>
+          <t>walnuts</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1 slice</t>
+          <t>1 tbsp</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="D102" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="E102" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="F102" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>amchoor</t>
+          <t>cashews</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2853,22 +2859,22 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F103" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>cocoa</t>
+          <t>methi seeds</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2877,22 +2883,22 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>2.55</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="F104" t="n">
-        <v>3</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>walnuts</t>
+          <t>peanuts</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2901,22 +2907,22 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D105" t="n">
-        <v>1.1</v>
+        <v>2.33</v>
       </c>
       <c r="E105" t="n">
-        <v>4.9</v>
+        <v>4.33</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>cashews</t>
+          <t>raw chana dal</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2925,22 +2931,22 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E106" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F106" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>methi seeds</t>
+          <t>tamarind paste</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2949,22 +2955,22 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D107" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>6.48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>peanuts</t>
+          <t>chana masala</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2973,22 +2979,22 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D108" t="n">
-        <v>2.33</v>
+        <v>0.5</v>
       </c>
       <c r="E108" t="n">
-        <v>4.33</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>raw chana dal</t>
+          <t>kirkland salted mixed nuts</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2997,22 +3003,22 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D109" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="E109" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F109" t="n">
         <v>1.5</v>
-      </c>
-      <c r="F109" t="n">
-        <v>3.8</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>tamarind paste</t>
+          <t>soy sauce</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3021,22 +3027,22 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F110" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>chana masala</t>
+          <t>white vinegar</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3045,22 +3051,22 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>kirkland salted mixed nuts</t>
+          <t>red chili sauce</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3072,19 +3078,19 @@
         <v>45</v>
       </c>
       <c r="D112" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>1.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>soy sauce</t>
+          <t>schezwan stir fry sauce</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3093,22 +3099,22 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D113" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="E113" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F113" t="n">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>white vinegar</t>
+          <t>flaxseed powder</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3117,22 +3123,22 @@
         </is>
       </c>
       <c r="C114" t="n">
+        <v>37</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E114" t="n">
         <v>3</v>
       </c>
-      <c r="D114" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0</v>
-      </c>
       <c r="F114" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>red chili sauce</t>
+          <t>green chili sauce</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3141,7 +3147,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -3150,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>schezwan stir fry sauce</t>
+          <t>almonds</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3165,22 +3171,22 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D116" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="F116" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>flaxseed powder</t>
+          <t>mango pickle</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3189,22 +3195,22 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>37</v>
+        <v>27.5</v>
       </c>
       <c r="D117" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="E117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F117" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>green chili sauce</t>
+          <t>idli podi</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3213,22 +3219,22 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F118" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>almonds</t>
+          <t>biryani masala powder</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3237,22 +3243,22 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>mango pickle</t>
+          <t>peanut butter</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3261,22 +3267,22 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>27.5</v>
+        <v>94</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5</v>
+        <v>4.01</v>
       </c>
       <c r="E120" t="n">
-        <v>2</v>
+        <v>8.06</v>
       </c>
       <c r="F120" t="n">
-        <v>1.5</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>idli podi</t>
+          <t>sesame seeds</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3285,22 +3291,22 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D121" t="n">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="E121" t="n">
-        <v>3</v>
+        <v>4.47</v>
       </c>
       <c r="F121" t="n">
-        <v>25</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>biryani masala powder</t>
+          <t>coriander seeds</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3309,22 +3315,22 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="F122" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>peanut butter</t>
+          <t>cumin seeds</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3333,22 +3339,22 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="D123" t="n">
-        <v>4.01</v>
+        <v>1.07</v>
       </c>
       <c r="E123" t="n">
-        <v>8.06</v>
+        <v>1.34</v>
       </c>
       <c r="F123" t="n">
-        <v>3.13</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>sesame seeds</t>
+          <t>ginger garlic paste</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3357,22 +3363,22 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D124" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="E124" t="n">
-        <v>4.47</v>
+        <v>5.4</v>
       </c>
       <c r="F124" t="n">
-        <v>2.11</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>coriander seeds</t>
+          <t>vegan butter</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3381,22 +3387,22 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D125" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0.89</v>
+        <v>6</v>
       </c>
       <c r="F125" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>cumin seeds</t>
+          <t>generic sweet boondi</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3405,22 +3411,22 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>22</v>
+        <v>16.58</v>
       </c>
       <c r="D126" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>1.34</v>
+        <v>0.25</v>
       </c>
       <c r="F126" t="n">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ginger garlic paste</t>
+          <t>generic coconut chutney</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3429,22 +3435,22 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E127" t="n">
-        <v>5.4</v>
+        <v>2.2</v>
       </c>
       <c r="F127" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>vegan butter</t>
+          <t>generic peanut chutney</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3453,22 +3459,22 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>generic sweet boondi</t>
+          <t>red chilli sauce</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3477,22 +3483,22 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>16.58</v>
+        <v>3.8</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E129" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F129" t="n">
-        <v>3.25</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>generic coconut chutney</t>
+          <t>green chilli sauce</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3501,22 +3507,22 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>generic peanut chutney</t>
+          <t>honey</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3525,22 +3531,22 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>1.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>red chilli sauce</t>
+          <t>worcestershire sauce</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3549,22 +3555,22 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3.8</v>
+        <v>13</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>green chilli sauce</t>
+          <t>nutritional yeast</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3573,22 +3579,22 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F133" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>honey</t>
+          <t>buffalo sauce</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3597,94 +3603,94 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>60</v>
+        <v>1.8</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F134" t="n">
-        <v>17</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>worcestershire sauce</t>
+          <t>chili powder</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1 tbsp</t>
+          <t>1 tsp</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="F135" t="n">
-        <v>3.3</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>nutritional yeast</t>
+          <t>coriander powder</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1 tbsp</t>
+          <t>1 tsp</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D136" t="n">
-        <v>3.8</v>
+        <v>0.22</v>
       </c>
       <c r="E136" t="n">
-        <v>0.6</v>
+        <v>0.32</v>
       </c>
       <c r="F136" t="n">
-        <v>3.2</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>buffalo sauce</t>
+          <t>haldi</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1 tbsp</t>
+          <t>1 tsp</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="D137" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="E137" t="n">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="F137" t="n">
-        <v>0.1</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>chili powder</t>
+          <t>garam masala</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3693,22 +3699,22 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>1.42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>coriander powder</t>
+          <t>sugar</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3717,22 +3723,22 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D139" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.99</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>haldi</t>
+          <t>olive oil</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3741,22 +3747,22 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D140" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0.22</v>
+        <v>4.5</v>
       </c>
       <c r="F140" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>garam masala</t>
+          <t>maple syrup</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3765,22 +3771,22 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>sugar</t>
+          <t>bombay sandwich chutney</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3789,7 +3795,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -3798,13 +3804,13 @@
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>15.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>olive oil</t>
+          <t>cardamom</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3813,22 +3819,22 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="E143" t="n">
-        <v>4.5</v>
+        <v>0.13</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>maple syrup</t>
+          <t>sambar masala</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3837,22 +3843,22 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E144" t="n">
-        <v>0.01</v>
+        <v>0.3</v>
       </c>
       <c r="F144" t="n">
-        <v>2.73</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>bombay sandwich chutney</t>
+          <t>black pepper</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3876,7 +3882,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>cardamom</t>
+          <t>chunky chat masala</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3885,22 +3891,22 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D146" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>1.37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>sambar masala</t>
+          <t>chawanprash</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3909,22 +3915,22 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>6.5</v>
+        <v>50</v>
       </c>
       <c r="D147" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>1.1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>black pepper</t>
+          <t>bombay chutney</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3948,7 +3954,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>chunky chat masala</t>
+          <t>jaggery</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3957,7 +3963,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>20</v>
+        <v>15.8</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -3966,13 +3972,13 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>chawanprash</t>
+          <t>ghee</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3981,478 +3987,478 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
       </c>
       <c r="E150" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F150" t="n">
         <v>0</v>
-      </c>
-      <c r="F150" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>bombay chutney</t>
+          <t>basil pasta sauce</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1 tsp</t>
+          <t>1/2 cup</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F151" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>jaggery</t>
+          <t>crumbl brownie cookie</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1 tsp</t>
+          <t>1/4 cookie</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>15.8</v>
+        <v>150</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F152" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ghee</t>
+          <t>vegan mozzarella cheese</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>1 tsp</t>
+          <t>1/4 cup</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>basil pasta sauce</t>
+          <t>pista</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1/2 cup</t>
+          <t>1/4 cup</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="D154" t="n">
-        <v>2</v>
+        <v>6.34</v>
       </c>
       <c r="E154" t="n">
-        <v>2.5</v>
+        <v>13.67</v>
       </c>
       <c r="F154" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>crumbl brownie cookie</t>
+          <t>generic quick upma</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>1/4 cookie</t>
+          <t>1/4th cup</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="D155" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E155" t="n">
-        <v>8</v>
+        <v>5.8</v>
       </c>
       <c r="F155" t="n">
-        <v>18</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>vegan mozzarella cheese</t>
+          <t>pappad small</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1/4 cup</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D156" t="n">
+        <v>3</v>
+      </c>
+      <c r="E156" t="n">
         <v>0</v>
       </c>
-      <c r="E156" t="n">
-        <v>5</v>
-      </c>
       <c r="F156" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>pista</t>
+          <t>generic mini veg uttapam</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1/4 cup</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D157" t="n">
-        <v>6.34</v>
+        <v>4</v>
       </c>
       <c r="E157" t="n">
-        <v>13.67</v>
+        <v>11</v>
       </c>
       <c r="F157" t="n">
-        <v>8.6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>generic quick upma</t>
+          <t>oats ginger chilli khakra</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1/4th cup</t>
+          <t>2 pieces</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D158" t="n">
         <v>4</v>
       </c>
       <c r="E158" t="n">
-        <v>5.8</v>
+        <v>10</v>
       </c>
       <c r="F158" t="n">
-        <v>30.7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>pappad small</t>
+          <t>drumstick</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3 pieces</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>50</v>
+        <v>6.7</v>
       </c>
       <c r="D159" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>generic mini veg uttapam</t>
+          <t>marshmallow</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4 pieces</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="D160" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="E160" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>18</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>oats ginger chilli khakra</t>
+          <t>pani puri dry</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2 pieces</t>
+          <t>5 pieces</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D161" t="n">
+        <v>2</v>
+      </c>
+      <c r="E161" t="n">
         <v>4</v>
       </c>
-      <c r="E161" t="n">
-        <v>10</v>
-      </c>
       <c r="F161" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>drumstick</t>
+          <t>bhindi</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>3 pieces</t>
+          <t>8 pods</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>6.7</v>
+        <v>29</v>
       </c>
       <c r="D162" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>marshmallow</t>
+          <t>pumpkin pie spice</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>4 pieces</t>
+          <t>1 tsp</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>92</v>
+        <v>5.8</v>
       </c>
       <c r="D163" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F163" t="n">
-        <v>23.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>pani puri dry</t>
+          <t>zucchini</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>5 pieces</t>
+          <t>1 medium</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D164" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="E164" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="F164" t="n">
-        <v>17</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>bhindi</t>
+          <t>bouillon cube</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>8 pods</t>
+          <t>1 tsp</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D165" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="E165" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="F165" t="n">
-        <v>6.68</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>pumpkin pie spice</t>
+          <t>goji berries</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1 tsp</t>
+          <t>1 tbsp</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>5.8</v>
+        <v>20</v>
       </c>
       <c r="D166" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="E166" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>zucchini</t>
+          <t>poha</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1 medium</t>
+          <t>1 serving</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>30</v>
+        <v>183.15</v>
       </c>
       <c r="D167" t="n">
-        <v>2.3</v>
+        <v>3.15</v>
       </c>
       <c r="E167" t="n">
-        <v>0.7</v>
+        <v>13.65</v>
       </c>
       <c r="F167" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>bouillon cube</t>
+          <t>makhana</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>1 tsp</t>
+          <t>1 serving</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="D168" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="E168" t="n">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="F168" t="n">
-        <v>1.7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>goji berries</t>
+          <t>rava chowmein</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1 tbsp</t>
+          <t>1 serving</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>20</v>
+        <v>372</v>
       </c>
       <c r="D169" t="n">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F169" t="n">
-        <v>4.2</v>
+        <v>82</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>poha</t>
+          <t>harvest snaps green peas</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4461,22 +4467,22 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>183.15</v>
+        <v>130</v>
       </c>
       <c r="D170" t="n">
-        <v>3.15</v>
+        <v>5</v>
       </c>
       <c r="E170" t="n">
-        <v>13.65</v>
+        <v>5</v>
       </c>
       <c r="F170" t="n">
-        <v>4.2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>makhana</t>
+          <t>millet dosa</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4485,22 +4491,22 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>90</v>
+        <v>129.95625</v>
       </c>
       <c r="D171" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="E171" t="n">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="F171" t="n">
-        <v>13</v>
+        <v>20.675</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>rava chowmein</t>
+          <t>coriander chutney</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4509,22 +4515,22 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>372</v>
+        <v>68.91666666666667</v>
       </c>
       <c r="D172" t="n">
-        <v>10</v>
+        <v>6.75</v>
       </c>
       <c r="E172" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="F172" t="n">
-        <v>82</v>
+        <v>2.416666666666667</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>harvest snaps green peas</t>
+          <t>half yolk egg</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4533,22 +4539,22 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="D173" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E173" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F173" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>millet dosa</t>
+          <t>multigrain roti</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4557,22 +4563,22 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>129.95625</v>
+        <v>97.5</v>
       </c>
       <c r="D174" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="E174" t="n">
-        <v>2.875</v>
+        <v>0.5</v>
       </c>
       <c r="F174" t="n">
-        <v>20.675</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>coriander chutney</t>
+          <t>moong dal khichdi</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4581,22 +4587,22 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>68.91666666666667</v>
+        <v>396.53</v>
       </c>
       <c r="D175" t="n">
-        <v>6.75</v>
+        <v>15.05</v>
       </c>
       <c r="E175" t="n">
-        <v>3.5</v>
+        <v>11.63</v>
       </c>
       <c r="F175" t="n">
-        <v>2.416666666666667</v>
+        <v>49.45</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>half yolk egg</t>
+          <t>berry banana smoothie</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4605,22 +4611,22 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>46</v>
+        <v>246.5</v>
       </c>
       <c r="D176" t="n">
-        <v>4</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="E176" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>52.1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>multigrain roti</t>
+          <t>mocha</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4629,22 +4635,22 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>97.5</v>
+        <v>147.1</v>
       </c>
       <c r="D177" t="n">
-        <v>3.5</v>
+        <v>2.68</v>
       </c>
       <c r="E177" t="n">
-        <v>0.5</v>
+        <v>3.35</v>
       </c>
       <c r="F177" t="n">
-        <v>18</v>
+        <v>72.73</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>moong dal khichdi</t>
+          <t>khakra chaat</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4653,22 +4659,22 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>396.53</v>
+        <v>174.625</v>
       </c>
       <c r="D178" t="n">
-        <v>15.05</v>
+        <v>10.3125</v>
       </c>
       <c r="E178" t="n">
-        <v>11.63</v>
+        <v>6.625</v>
       </c>
       <c r="F178" t="n">
-        <v>49.45</v>
+        <v>18.6875</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>berry banana smoothie</t>
+          <t>tava bhindi</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4677,22 +4683,22 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>246.5</v>
+        <v>115</v>
       </c>
       <c r="D179" t="n">
-        <v>5.699999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="E179" t="n">
-        <v>1.7</v>
+        <v>4.15</v>
       </c>
       <c r="F179" t="n">
-        <v>52.1</v>
+        <v>15.525</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>mocha</t>
+          <t>lemon millet</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4701,22 +4707,22 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>147.1</v>
+        <v>297.5</v>
       </c>
       <c r="D180" t="n">
-        <v>2.68</v>
+        <v>8</v>
       </c>
       <c r="E180" t="n">
-        <v>3.35</v>
+        <v>10.5</v>
       </c>
       <c r="F180" t="n">
-        <v>72.73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>khakra chaat</t>
+          <t>chowmein</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4725,22 +4731,22 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>174.625</v>
+        <v>351.1966666666667</v>
       </c>
       <c r="D181" t="n">
-        <v>10.3125</v>
+        <v>11.25</v>
       </c>
       <c r="E181" t="n">
-        <v>6.625</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="F181" t="n">
-        <v>18.6875</v>
+        <v>62.13333333333333</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>tava bhindi</t>
+          <t>apple banana smoothie</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4749,22 +4755,22 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>115</v>
+        <v>233.45</v>
       </c>
       <c r="D182" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="E182" t="n">
-        <v>4.15</v>
+        <v>5.1</v>
       </c>
       <c r="F182" t="n">
-        <v>15.525</v>
+        <v>45.25000000000001</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>lemon millet</t>
+          <t>masoor dal khichdi</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4773,22 +4779,22 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>297.5</v>
+        <v>436.92</v>
       </c>
       <c r="D183" t="n">
-        <v>8</v>
+        <v>13.36</v>
       </c>
       <c r="E183" t="n">
-        <v>10.5</v>
+        <v>16.66</v>
       </c>
       <c r="F183" t="n">
-        <v>39</v>
+        <v>54.55</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>chowmein</t>
+          <t>millet pongal</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4797,22 +4803,22 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>351.1966666666667</v>
+        <v>351.73</v>
       </c>
       <c r="D184" t="n">
-        <v>11.25</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="E184" t="n">
-        <v>5.333333333333333</v>
+        <v>15.59</v>
       </c>
       <c r="F184" t="n">
-        <v>62.13333333333333</v>
+        <v>40.28</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>apple banana smoothie</t>
+          <t>black coffee</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4821,22 +4827,22 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>233.45</v>
+        <v>18.75</v>
       </c>
       <c r="D185" t="n">
-        <v>2.15</v>
+        <v>0.125</v>
       </c>
       <c r="E185" t="n">
-        <v>5.1</v>
+        <v>0.25</v>
       </c>
       <c r="F185" t="n">
-        <v>45.25000000000001</v>
+        <v>15.125</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>masoor dal khichdi</t>
+          <t>rava upma</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4845,22 +4851,22 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>436.92</v>
+        <v>276.14</v>
       </c>
       <c r="D186" t="n">
-        <v>13.36</v>
+        <v>7.58</v>
       </c>
       <c r="E186" t="n">
-        <v>16.66</v>
+        <v>10.58</v>
       </c>
       <c r="F186" t="n">
-        <v>54.55</v>
+        <v>34.74</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>millet pongal</t>
+          <t>apple smoothie</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4869,22 +4875,22 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>351.73</v>
+        <v>205.5</v>
       </c>
       <c r="D187" t="n">
-        <v>8.710000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="E187" t="n">
-        <v>15.59</v>
+        <v>6.7</v>
       </c>
       <c r="F187" t="n">
-        <v>40.28</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>black coffee</t>
+          <t>indian milk tea</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4893,22 +4899,22 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>18.75</v>
+        <v>62.7</v>
       </c>
       <c r="D188" t="n">
-        <v>0.125</v>
+        <v>1.005</v>
       </c>
       <c r="E188" t="n">
-        <v>0.25</v>
+        <v>1.675</v>
       </c>
       <c r="F188" t="n">
-        <v>15.125</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>rava upma</t>
+          <t>red sauce pasta</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4917,22 +4923,22 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>276.14</v>
+        <v>387.45</v>
       </c>
       <c r="D189" t="n">
-        <v>7.58</v>
+        <v>12.4125</v>
       </c>
       <c r="E189" t="n">
-        <v>10.58</v>
+        <v>14.8</v>
       </c>
       <c r="F189" t="n">
-        <v>34.74</v>
+        <v>49.2625</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>apple smoothie</t>
+          <t>egg fried millet</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4941,22 +4947,22 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>205.5</v>
+        <v>555.429</v>
       </c>
       <c r="D190" t="n">
-        <v>2.1</v>
+        <v>18.503</v>
       </c>
       <c r="E190" t="n">
-        <v>6.7</v>
+        <v>18.332</v>
       </c>
       <c r="F190" t="n">
-        <v>33.6</v>
+        <v>70.82899999999999</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>indian milk tea</t>
+          <t>aloo paratha</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4965,22 +4971,22 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>62.7</v>
+        <v>245.6</v>
       </c>
       <c r="D191" t="n">
-        <v>1.005</v>
+        <v>5.4</v>
       </c>
       <c r="E191" t="n">
-        <v>1.675</v>
+        <v>9</v>
       </c>
       <c r="F191" t="n">
-        <v>27.86</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>red sauce pasta</t>
+          <t>beans sabji</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4989,22 +4995,22 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>387.45</v>
+        <v>96</v>
       </c>
       <c r="D192" t="n">
-        <v>12.4125</v>
+        <v>7</v>
       </c>
       <c r="E192" t="n">
-        <v>14.8</v>
+        <v>7</v>
       </c>
       <c r="F192" t="n">
-        <v>49.2625</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>egg fried millet</t>
+          <t>brinjal sabji</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -5013,22 +5019,22 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>555.429</v>
+        <v>154.24</v>
       </c>
       <c r="D193" t="n">
-        <v>18.503</v>
+        <v>3.58</v>
       </c>
       <c r="E193" t="n">
-        <v>18.332</v>
+        <v>4.06</v>
       </c>
       <c r="F193" t="n">
-        <v>70.82899999999999</v>
+        <v>22.88</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>aloo paratha</t>
+          <t>spring mix salad</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -5037,22 +5043,22 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>245.6</v>
+        <v>142.5</v>
       </c>
       <c r="D194" t="n">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="E194" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F194" t="n">
-        <v>37.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>beans sabji</t>
+          <t>pani puri chaat</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -5061,22 +5067,22 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>96</v>
+        <v>53.83</v>
       </c>
       <c r="D195" t="n">
-        <v>7</v>
+        <v>2.3875</v>
       </c>
       <c r="E195" t="n">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="F195" t="n">
-        <v>29.5</v>
+        <v>9.2075</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>brinjal sabji</t>
+          <t>pesarattu upma</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -5085,22 +5091,22 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>154.24</v>
+        <v>489.25</v>
       </c>
       <c r="D196" t="n">
-        <v>3.58</v>
+        <v>24.75</v>
       </c>
       <c r="E196" t="n">
-        <v>4.06</v>
+        <v>14.25</v>
       </c>
       <c r="F196" t="n">
-        <v>22.88</v>
+        <v>63.125</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>spring mix salad</t>
+          <t>panchmel dal</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -5109,22 +5115,22 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>142.5</v>
+        <v>140.875</v>
       </c>
       <c r="D197" t="n">
-        <v>0.5</v>
+        <v>7.71875</v>
       </c>
       <c r="E197" t="n">
-        <v>6</v>
+        <v>5.28125</v>
       </c>
       <c r="F197" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>pani puri chaat</t>
+          <t>millet biryani</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -5133,22 +5139,22 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>53.83</v>
+        <v>505.93</v>
       </c>
       <c r="D198" t="n">
-        <v>2.3875</v>
+        <v>13.085</v>
       </c>
       <c r="E198" t="n">
-        <v>1.4</v>
+        <v>15.915</v>
       </c>
       <c r="F198" t="n">
-        <v>9.2075</v>
+        <v>74.53</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>pesarattu upma</t>
+          <t>pumpkin chutney</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -5157,22 +5163,22 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>489.25</v>
+        <v>74</v>
       </c>
       <c r="D199" t="n">
-        <v>24.75</v>
+        <v>2</v>
       </c>
       <c r="E199" t="n">
-        <v>14.25</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="F199" t="n">
-        <v>63.125</v>
+        <v>6.833333333333333</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>panchmel dal</t>
+          <t>apple peanut butter smoothie</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -5181,22 +5187,22 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>140.875</v>
+        <v>264</v>
       </c>
       <c r="D200" t="n">
-        <v>7.71875</v>
+        <v>12</v>
       </c>
       <c r="E200" t="n">
-        <v>5.28125</v>
+        <v>14.5</v>
       </c>
       <c r="F200" t="n">
-        <v>12.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>millet biryani</t>
+          <t>gutti vankaya</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -5205,22 +5211,22 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>505.93</v>
+        <v>169.2975</v>
       </c>
       <c r="D201" t="n">
-        <v>13.085</v>
+        <v>3.79875</v>
       </c>
       <c r="E201" t="n">
-        <v>15.915</v>
+        <v>8.595000000000001</v>
       </c>
       <c r="F201" t="n">
-        <v>74.53</v>
+        <v>16.8725</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>pumpkin chutney</t>
+          <t>palak sambar</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -5229,22 +5235,22 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>74</v>
+        <v>69.25</v>
       </c>
       <c r="D202" t="n">
         <v>2</v>
       </c>
       <c r="E202" t="n">
-        <v>3.666666666666667</v>
+        <v>3.125</v>
       </c>
       <c r="F202" t="n">
-        <v>6.833333333333333</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>apple peanut butter smoothie</t>
+          <t>bhindi dopyaza</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -5253,22 +5259,22 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>264</v>
+        <v>221.87</v>
       </c>
       <c r="D203" t="n">
-        <v>12</v>
+        <v>11.93</v>
       </c>
       <c r="E203" t="n">
-        <v>14.5</v>
+        <v>9.835000000000001</v>
       </c>
       <c r="F203" t="n">
-        <v>20.5</v>
+        <v>19.35</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>gutti vankaya</t>
+          <t>chana masala sabji</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -5277,22 +5283,22 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>169.2975</v>
+        <v>267.75</v>
       </c>
       <c r="D204" t="n">
-        <v>3.79875</v>
+        <v>14.5</v>
       </c>
       <c r="E204" t="n">
-        <v>8.595000000000001</v>
+        <v>5.0625</v>
       </c>
       <c r="F204" t="n">
-        <v>16.8725</v>
+        <v>12.625</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>palak sambar</t>
+          <t>mini bell pepper salad</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -5301,22 +5307,22 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>69.25</v>
+        <v>114.95</v>
       </c>
       <c r="D205" t="n">
-        <v>2</v>
+        <v>4.55</v>
       </c>
       <c r="E205" t="n">
-        <v>3.125</v>
+        <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>7</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>bhindi dopyaza</t>
+          <t>diet bhel chaat</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -5325,22 +5331,22 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>221.87</v>
+        <v>169.25</v>
       </c>
       <c r="D206" t="n">
-        <v>11.93</v>
+        <v>9.9375</v>
       </c>
       <c r="E206" t="n">
-        <v>9.835000000000001</v>
+        <v>7.125</v>
       </c>
       <c r="F206" t="n">
-        <v>19.35</v>
+        <v>17.5625</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>chana masala sabji</t>
+          <t>rava idli</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -5349,22 +5355,22 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>267.75</v>
+        <v>79.58333333333333</v>
       </c>
       <c r="D207" t="n">
-        <v>14.5</v>
+        <v>2.694444444444445</v>
       </c>
       <c r="E207" t="n">
-        <v>5.0625</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="F207" t="n">
-        <v>12.625</v>
+        <v>11.58333333333333</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>mini bell pepper salad</t>
+          <t>pesarattu</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -5373,22 +5379,22 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>114.95</v>
+        <v>53.8</v>
       </c>
       <c r="D208" t="n">
-        <v>4.55</v>
+        <v>1.95</v>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="F208" t="n">
-        <v>10.65</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>diet bhel chaat</t>
+          <t>carrot chutney</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -5397,22 +5403,22 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>169.25</v>
+        <v>45.5</v>
       </c>
       <c r="D209" t="n">
-        <v>9.9375</v>
+        <v>0.5</v>
       </c>
       <c r="E209" t="n">
-        <v>7.125</v>
+        <v>2.5</v>
       </c>
       <c r="F209" t="n">
-        <v>17.5625</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>rava idli</t>
+          <t>quinoa dosa</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -5421,22 +5427,22 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>79.58333333333333</v>
+        <v>54.7558</v>
       </c>
       <c r="D210" t="n">
-        <v>2.694444444444445</v>
+        <v>2.6156</v>
       </c>
       <c r="E210" t="n">
-        <v>2.111111111111111</v>
+        <v>0.70625</v>
       </c>
       <c r="F210" t="n">
-        <v>11.58333333333333</v>
+        <v>9.171800000000001</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>pesarattu</t>
+          <t>ragi dosa</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -5445,22 +5451,22 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>53.8</v>
+        <v>135.2666666666667</v>
       </c>
       <c r="D211" t="n">
-        <v>1.95</v>
+        <v>4.066666666666666</v>
       </c>
       <c r="E211" t="n">
-        <v>2.05</v>
+        <v>2.233333333333333</v>
       </c>
       <c r="F211" t="n">
-        <v>6.4</v>
+        <v>24.46666666666667</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>carrot chutney</t>
+          <t>bajra pesarattu</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5469,22 +5475,22 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>45.5</v>
+        <v>65</v>
       </c>
       <c r="D212" t="n">
-        <v>0.5</v>
+        <v>2.21875</v>
       </c>
       <c r="E212" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="F212" t="n">
-        <v>1.5</v>
+        <v>9.90625</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>quinoa dosa</t>
+          <t>tomato pachadi</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -5493,22 +5499,22 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>54.7558</v>
+        <v>65.86375000000001</v>
       </c>
       <c r="D213" t="n">
-        <v>2.6156</v>
+        <v>7.49</v>
       </c>
       <c r="E213" t="n">
-        <v>0.70625</v>
+        <v>2.215</v>
       </c>
       <c r="F213" t="n">
-        <v>9.171800000000001</v>
+        <v>2.345</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ragi dosa</t>
+          <t>vermicelli upma</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -5517,22 +5523,22 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>135.2666666666667</v>
+        <v>173.85</v>
       </c>
       <c r="D214" t="n">
-        <v>4.066666666666666</v>
+        <v>3.89</v>
       </c>
       <c r="E214" t="n">
-        <v>2.233333333333333</v>
+        <v>6.58</v>
       </c>
       <c r="F214" t="n">
-        <v>24.46666666666667</v>
+        <v>15.11</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>bajra pesarattu</t>
+          <t>mixed veg raita</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -5541,22 +5547,22 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>65</v>
+        <v>56.5</v>
       </c>
       <c r="D215" t="n">
-        <v>2.21875</v>
+        <v>6.25</v>
       </c>
       <c r="E215" t="n">
         <v>1.75</v>
       </c>
       <c r="F215" t="n">
-        <v>9.90625</v>
+        <v>5.125</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>tomato pachadi</t>
+          <t>methi thepla</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -5565,22 +5571,22 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>65.86375000000001</v>
+        <v>126.5</v>
       </c>
       <c r="D216" t="n">
-        <v>7.49</v>
+        <v>4.83</v>
       </c>
       <c r="E216" t="n">
-        <v>2.215</v>
+        <v>2.081</v>
       </c>
       <c r="F216" t="n">
-        <v>2.345</v>
+        <v>20.312</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>vermicelli upma</t>
+          <t>kellogs k cereal</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -5589,22 +5595,22 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>173.85</v>
+        <v>247.5</v>
       </c>
       <c r="D217" t="n">
-        <v>3.89</v>
+        <v>5.5</v>
       </c>
       <c r="E217" t="n">
-        <v>6.58</v>
+        <v>2</v>
       </c>
       <c r="F217" t="n">
-        <v>15.11</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>mixed veg raita</t>
+          <t>spinach sambar</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5613,22 +5619,22 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>56.5</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D218" t="n">
-        <v>6.25</v>
+        <v>2.64</v>
       </c>
       <c r="E218" t="n">
-        <v>1.75</v>
+        <v>2.165</v>
       </c>
       <c r="F218" t="n">
-        <v>5.125</v>
+        <v>8.260000000000002</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>methi thepla</t>
+          <t>spinach sambar</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -5637,22 +5643,22 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>126.5</v>
+        <v>86</v>
       </c>
       <c r="D219" t="n">
-        <v>4.83</v>
+        <v>4</v>
       </c>
       <c r="E219" t="n">
-        <v>2.081</v>
+        <v>2.25</v>
       </c>
       <c r="F219" t="n">
-        <v>20.312</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>kellogs k cereal</t>
+          <t>kala chana sabji</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -5661,22 +5667,22 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>247.5</v>
+        <v>177.875</v>
       </c>
       <c r="D220" t="n">
-        <v>5.5</v>
+        <v>15.25</v>
       </c>
       <c r="E220" t="n">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="F220" t="n">
-        <v>59.5</v>
+        <v>17.8125</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>spinach sambar</t>
+          <t>pizza sandwich</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -5685,22 +5691,22 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>65.59999999999999</v>
+        <v>342.85</v>
       </c>
       <c r="D221" t="n">
-        <v>2.64</v>
+        <v>13.195</v>
       </c>
       <c r="E221" t="n">
-        <v>2.165</v>
+        <v>9.82</v>
       </c>
       <c r="F221" t="n">
-        <v>8.260000000000002</v>
+        <v>50.975</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>spinach sambar</t>
+          <t>black bean salad</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5709,22 +5715,22 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>86</v>
+        <v>213.875</v>
       </c>
       <c r="D222" t="n">
-        <v>4</v>
+        <v>14.625</v>
       </c>
       <c r="E222" t="n">
-        <v>2.25</v>
+        <v>1.625</v>
       </c>
       <c r="F222" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>kala chana sabji</t>
+          <t>cookies and cream mousse cup</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5733,22 +5739,22 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>177.875</v>
+        <v>240</v>
       </c>
       <c r="D223" t="n">
-        <v>15.25</v>
+        <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>4.75</v>
+        <v>20</v>
       </c>
       <c r="F223" t="n">
-        <v>17.8125</v>
+        <v>31</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>pizza sandwich</t>
+          <t>aloo masala sandwich</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5757,22 +5763,22 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>342.85</v>
+        <v>381.3</v>
       </c>
       <c r="D224" t="n">
-        <v>13.195</v>
+        <v>11.5</v>
       </c>
       <c r="E224" t="n">
-        <v>9.82</v>
+        <v>5.98</v>
       </c>
       <c r="F224" t="n">
-        <v>50.975</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>black bean salad</t>
+          <t>apple spinach smoothie</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -5781,22 +5787,22 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>213.875</v>
+        <v>221.75</v>
       </c>
       <c r="D225" t="n">
-        <v>14.625</v>
+        <v>9.625</v>
       </c>
       <c r="E225" t="n">
-        <v>1.625</v>
+        <v>1.25</v>
       </c>
       <c r="F225" t="n">
-        <v>36</v>
+        <v>41.375</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>cookies and cream mousse cup</t>
+          <t>bajra roti</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5805,22 +5811,22 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>240</v>
+        <v>171.9</v>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="E226" t="n">
-        <v>20</v>
+        <v>1.5</v>
       </c>
       <c r="F226" t="n">
-        <v>31</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>aloo masala sandwich</t>
+          <t>black bean spring mix salad</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -5829,22 +5835,22 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>381.3</v>
+        <v>191.125</v>
       </c>
       <c r="D227" t="n">
-        <v>11.5</v>
+        <v>15.25</v>
       </c>
       <c r="E227" t="n">
-        <v>5.98</v>
+        <v>2</v>
       </c>
       <c r="F227" t="n">
-        <v>69.5</v>
+        <v>26.625</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>apple spinach smoothie</t>
+          <t>bhindi fry</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -5853,22 +5859,22 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>221.75</v>
+        <v>86.625</v>
       </c>
       <c r="D228" t="n">
-        <v>9.625</v>
+        <v>1.5</v>
       </c>
       <c r="E228" t="n">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="F228" t="n">
-        <v>41.375</v>
+        <v>9.6875</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>bajra roti</t>
+          <t>avocado egg sandwich</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5877,22 +5883,22 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>171.9</v>
+        <v>339.2</v>
       </c>
       <c r="D229" t="n">
-        <v>5.4</v>
+        <v>12.8</v>
       </c>
       <c r="E229" t="n">
-        <v>1.5</v>
+        <v>19.5</v>
       </c>
       <c r="F229" t="n">
-        <v>32.7</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>black bean spring mix salad</t>
+          <t>oat khakra chaat</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5901,22 +5907,22 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>191.125</v>
+        <v>290.125</v>
       </c>
       <c r="D230" t="n">
-        <v>15.25</v>
+        <v>12.3125</v>
       </c>
       <c r="E230" t="n">
-        <v>2</v>
+        <v>12.625</v>
       </c>
       <c r="F230" t="n">
-        <v>26.625</v>
+        <v>33.1875</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>bhindi fry</t>
+          <t>quinoa rice flour dosa</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5925,22 +5931,22 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>86.625</v>
+        <v>95.28571428571429</v>
       </c>
       <c r="D231" t="n">
-        <v>1.5</v>
+        <v>2.642857142857143</v>
       </c>
       <c r="E231" t="n">
-        <v>4</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F231" t="n">
-        <v>9.6875</v>
+        <v>18.07142857142857</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>avocado egg sandwich</t>
+          <t>buttermilk</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5949,22 +5955,22 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>339.2</v>
+        <v>9.375</v>
       </c>
       <c r="D232" t="n">
-        <v>12.8</v>
+        <v>0.625</v>
       </c>
       <c r="E232" t="n">
-        <v>19.5</v>
+        <v>0.4375</v>
       </c>
       <c r="F232" t="n">
-        <v>27.9</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>oat khakra chaat</t>
+          <t>drumstick sambar</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5973,22 +5979,22 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>290.125</v>
+        <v>113.375</v>
       </c>
       <c r="D233" t="n">
-        <v>12.3125</v>
+        <v>4</v>
       </c>
       <c r="E233" t="n">
-        <v>12.625</v>
+        <v>4.25</v>
       </c>
       <c r="F233" t="n">
-        <v>33.1875</v>
+        <v>13.3125</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>quinoa rice flour dosa</t>
+          <t>tandoori makhana</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5997,22 +6003,22 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>95.28571428571429</v>
+        <v>90</v>
       </c>
       <c r="D234" t="n">
-        <v>2.642857142857143</v>
+        <v>2</v>
       </c>
       <c r="E234" t="n">
-        <v>0.1428571428571428</v>
+        <v>3.5</v>
       </c>
       <c r="F234" t="n">
-        <v>18.07142857142857</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>buttermilk</t>
+          <t>blueberry banana smoothie</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -6021,22 +6027,22 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>9.375</v>
+        <v>287.25</v>
       </c>
       <c r="D235" t="n">
-        <v>0.625</v>
+        <v>8.125</v>
       </c>
       <c r="E235" t="n">
-        <v>0.4375</v>
+        <v>1.75</v>
       </c>
       <c r="F235" t="n">
-        <v>0.875</v>
+        <v>61.625</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>drumstick sambar</t>
+          <t>cashew mushroom makhana curry</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -6045,22 +6051,22 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>113.375</v>
+        <v>188.975</v>
       </c>
       <c r="D236" t="n">
-        <v>4</v>
+        <v>8.705</v>
       </c>
       <c r="E236" t="n">
-        <v>4.25</v>
+        <v>12</v>
       </c>
       <c r="F236" t="n">
-        <v>13.3125</v>
+        <v>11.79</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>tandoori makhana</t>
+          <t>achari baingan</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -6069,22 +6075,22 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>90</v>
+        <v>132.5</v>
       </c>
       <c r="D237" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E237" t="n">
-        <v>3.5</v>
+        <v>7.816666666666666</v>
       </c>
       <c r="F237" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>blueberry banana smoothie</t>
+          <t>capsicum besan bhaji</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -6093,22 +6099,22 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>287.25</v>
+        <v>140.01</v>
       </c>
       <c r="D238" t="n">
-        <v>8.125</v>
+        <v>6.1</v>
       </c>
       <c r="E238" t="n">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="F238" t="n">
-        <v>61.625</v>
+        <v>14.54</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>cashew mushroom makhana curry</t>
+          <t>mushroom bell pepper fry</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -6117,22 +6123,22 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>188.975</v>
+        <v>94.875</v>
       </c>
       <c r="D239" t="n">
-        <v>8.705</v>
+        <v>6.875</v>
       </c>
       <c r="E239" t="n">
-        <v>12</v>
+        <v>5.25</v>
       </c>
       <c r="F239" t="n">
-        <v>11.79</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>achari baingan</t>
+          <t>vegan chickpea burger patty</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -6141,13 +6147,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>132.5</v>
+        <v>160.875</v>
       </c>
       <c r="D240" t="n">
-        <v>5</v>
+        <v>6.1875</v>
       </c>
       <c r="E240" t="n">
-        <v>7.816666666666666</v>
+        <v>4.6875</v>
       </c>
       <c r="F240" t="n">
         <v>10</v>
@@ -6156,7 +6162,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>capsicum besan bhaji</t>
+          <t>spinach carrot paratha</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -6165,22 +6171,22 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>140.01</v>
+        <v>126.55</v>
       </c>
       <c r="D241" t="n">
-        <v>6.1</v>
+        <v>4.0125</v>
       </c>
       <c r="E241" t="n">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="F241" t="n">
-        <v>14.54</v>
+        <v>19.1125</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>mushroom bell pepper fry</t>
+          <t>masoor dal tadka</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -6189,22 +6195,22 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>94.875</v>
+        <v>155.4</v>
       </c>
       <c r="D242" t="n">
-        <v>6.875</v>
+        <v>8.68</v>
       </c>
       <c r="E242" t="n">
-        <v>5.25</v>
+        <v>4.155</v>
       </c>
       <c r="F242" t="n">
-        <v>3.75</v>
+        <v>18.895</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>vegan chickpea burger patty</t>
+          <t>aloo bhindi</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -6213,22 +6219,22 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>160.875</v>
+        <v>288</v>
       </c>
       <c r="D243" t="n">
-        <v>6.1875</v>
+        <v>4.5</v>
       </c>
       <c r="E243" t="n">
-        <v>4.6875</v>
+        <v>12</v>
       </c>
       <c r="F243" t="n">
-        <v>10</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>spinach carrot paratha</t>
+          <t>homemade poha</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -6237,22 +6243,22 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>126.55</v>
+        <v>209.15</v>
       </c>
       <c r="D244" t="n">
-        <v>4.0125</v>
+        <v>4.15</v>
       </c>
       <c r="E244" t="n">
-        <v>2.75</v>
+        <v>15.65</v>
       </c>
       <c r="F244" t="n">
-        <v>19.1125</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>masoor dal tadka</t>
+          <t>masoor dal palak khichdi</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -6261,22 +6267,22 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>155.4</v>
+        <v>187.155</v>
       </c>
       <c r="D245" t="n">
-        <v>8.68</v>
+        <v>6.085</v>
       </c>
       <c r="E245" t="n">
-        <v>4.155</v>
+        <v>2.93</v>
       </c>
       <c r="F245" t="n">
-        <v>18.895</v>
+        <v>32.645</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>aloo bhindi</t>
+          <t>soya chunks pulao</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -6285,22 +6291,22 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>288</v>
+        <v>223.15</v>
       </c>
       <c r="D246" t="n">
-        <v>4.5</v>
+        <v>20.75</v>
       </c>
       <c r="E246" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F246" t="n">
-        <v>37.5</v>
+        <v>23.85</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>homemade poha</t>
+          <t>apple spinach flaxseed smoothie</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -6309,22 +6315,22 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>209.15</v>
+        <v>192.5</v>
       </c>
       <c r="D247" t="n">
-        <v>4.15</v>
+        <v>1.125</v>
       </c>
       <c r="E247" t="n">
-        <v>15.65</v>
+        <v>2.75</v>
       </c>
       <c r="F247" t="n">
-        <v>4.7</v>
+        <v>37.375</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>masoor dal palak khichdi</t>
+          <t>restaurant dal tadka</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -6333,22 +6339,22 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>187.155</v>
+        <v>259</v>
       </c>
       <c r="D248" t="n">
-        <v>6.085</v>
+        <v>12</v>
       </c>
       <c r="E248" t="n">
-        <v>2.93</v>
+        <v>10.7</v>
       </c>
       <c r="F248" t="n">
-        <v>32.645</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>soya chunks pulao</t>
+          <t>restaurant paneer butter masala</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -6357,22 +6363,22 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>223.15</v>
+        <v>660</v>
       </c>
       <c r="D249" t="n">
-        <v>20.75</v>
+        <v>29.3</v>
       </c>
       <c r="E249" t="n">
-        <v>5</v>
+        <v>51.1</v>
       </c>
       <c r="F249" t="n">
-        <v>23.85</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>apple spinach flaxseed smoothie</t>
+          <t>restaurant veg biryani</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -6381,22 +6387,22 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>192.5</v>
+        <v>448</v>
       </c>
       <c r="D250" t="n">
-        <v>1.125</v>
+        <v>8.9</v>
       </c>
       <c r="E250" t="n">
-        <v>2.75</v>
+        <v>18.2</v>
       </c>
       <c r="F250" t="n">
-        <v>37.375</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>restaurant dal tadka</t>
+          <t>restaurant sweet pongal</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -6405,22 +6411,22 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="D251" t="n">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="E251" t="n">
-        <v>10.7</v>
+        <v>6.9</v>
       </c>
       <c r="F251" t="n">
-        <v>28.9</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>restaurant paneer butter masala</t>
+          <t>restaurant veg raita</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -6429,22 +6435,22 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>660</v>
+        <v>30</v>
       </c>
       <c r="D252" t="n">
-        <v>29.3</v>
+        <v>2.3</v>
       </c>
       <c r="E252" t="n">
-        <v>51.1</v>
+        <v>0.1</v>
       </c>
       <c r="F252" t="n">
-        <v>20.4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>restaurant veg biryani</t>
+          <t>rice flour and sooji dosa</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -6453,22 +6459,22 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>448</v>
+        <v>101.2875</v>
       </c>
       <c r="D253" t="n">
-        <v>8.9</v>
+        <v>3.03125</v>
       </c>
       <c r="E253" t="n">
-        <v>18.2</v>
+        <v>2.085</v>
       </c>
       <c r="F253" t="n">
-        <v>60.8</v>
+        <v>17.34375</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>restaurant sweet pongal</t>
+          <t>aloo capsicum sabji</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -6477,22 +6483,22 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>272</v>
+        <v>119.75</v>
       </c>
       <c r="D254" t="n">
-        <v>3.8</v>
+        <v>7.375</v>
       </c>
       <c r="E254" t="n">
-        <v>6.9</v>
+        <v>2</v>
       </c>
       <c r="F254" t="n">
-        <v>48.7</v>
+        <v>18.125</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>restaurant veg raita</t>
+          <t>rice kheer</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -6501,22 +6507,22 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>30</v>
+        <v>305.5</v>
       </c>
       <c r="D255" t="n">
-        <v>2.3</v>
+        <v>4.875</v>
       </c>
       <c r="E255" t="n">
-        <v>0.1</v>
+        <v>7.875</v>
       </c>
       <c r="F255" t="n">
-        <v>5</v>
+        <v>80.75</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>rice flour and sooji dosa</t>
+          <t>aloo spinach carrot paratha</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -6525,22 +6531,22 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>101.2875</v>
+        <v>176.4</v>
       </c>
       <c r="D256" t="n">
-        <v>3.03125</v>
+        <v>4.4</v>
       </c>
       <c r="E256" t="n">
-        <v>2.085</v>
+        <v>2</v>
       </c>
       <c r="F256" t="n">
-        <v>17.34375</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>aloo capsicum sabji</t>
+          <t>peanut butter sandwich</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -6549,22 +6555,22 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>119.75</v>
+        <v>324</v>
       </c>
       <c r="D257" t="n">
-        <v>7.375</v>
+        <v>12</v>
       </c>
       <c r="E257" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F257" t="n">
-        <v>18.125</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>rice kheer</t>
+          <t>green apple pear orange smoothie</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -6573,22 +6579,22 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>305.5</v>
+        <v>295</v>
       </c>
       <c r="D258" t="n">
-        <v>4.875</v>
+        <v>9.5</v>
       </c>
       <c r="E258" t="n">
-        <v>7.875</v>
+        <v>0</v>
       </c>
       <c r="F258" t="n">
-        <v>80.75</v>
+        <v>64.75</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>aloo spinach carrot paratha</t>
+          <t>strawberry blueberry banana smoothie</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -6597,22 +6603,22 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>176.4</v>
+        <v>194.125</v>
       </c>
       <c r="D259" t="n">
-        <v>4.4</v>
+        <v>7.125</v>
       </c>
       <c r="E259" t="n">
-        <v>2</v>
+        <v>1.375</v>
       </c>
       <c r="F259" t="n">
-        <v>30.8</v>
+        <v>36.125</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>peanut butter sandwich</t>
+          <t>homemade tomato pasta</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -6621,22 +6627,22 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>324</v>
+        <v>270.03</v>
       </c>
       <c r="D260" t="n">
-        <v>12</v>
+        <v>12.11</v>
       </c>
       <c r="E260" t="n">
-        <v>10</v>
+        <v>6.3</v>
       </c>
       <c r="F260" t="n">
-        <v>49.5</v>
+        <v>42.97000000000001</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>green apple pear orange smoothie</t>
+          <t>aloo millet pulao</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -6645,22 +6651,22 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>295</v>
+        <v>374.4</v>
       </c>
       <c r="D261" t="n">
-        <v>9.5</v>
+        <v>8.6</v>
       </c>
       <c r="E261" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F261" t="n">
-        <v>64.75</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>strawberry blueberry banana smoothie</t>
+          <t>aloo millet pulao with ghee</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -6669,22 +6675,22 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>194.125</v>
+        <v>371.4</v>
       </c>
       <c r="D262" t="n">
-        <v>7.125</v>
+        <v>8.6</v>
       </c>
       <c r="E262" t="n">
-        <v>1.375</v>
+        <v>8</v>
       </c>
       <c r="F262" t="n">
-        <v>36.125</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>homemade tomato pasta</t>
+          <t>coriander coconut chutney</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -6693,22 +6699,22 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>270.03</v>
+        <v>121.875</v>
       </c>
       <c r="D263" t="n">
-        <v>12.11</v>
+        <v>3.75</v>
       </c>
       <c r="E263" t="n">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="F263" t="n">
-        <v>42.97000000000001</v>
+        <v>16.125</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>aloo millet pulao</t>
+          <t>restaurant kadai vegetable</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -6717,22 +6723,22 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>374.4</v>
+        <v>145</v>
       </c>
       <c r="D264" t="n">
-        <v>8.6</v>
+        <v>4.5</v>
       </c>
       <c r="E264" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="F264" t="n">
-        <v>55.9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>aloo millet pulao with ghee</t>
+          <t>restaurant paneer tikka masala</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -6741,22 +6747,22 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>371.4</v>
+        <v>230</v>
       </c>
       <c r="D265" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="E265" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>55.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>coriander coconut chutney</t>
+          <t>chana masala sabji with ghee</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -6765,22 +6771,22 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>121.875</v>
+        <v>256.5</v>
       </c>
       <c r="D266" t="n">
-        <v>3.75</v>
+        <v>12.75</v>
       </c>
       <c r="E266" t="n">
-        <v>5</v>
+        <v>5.0625</v>
       </c>
       <c r="F266" t="n">
-        <v>16.125</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>restaurant kadai vegetable</t>
+          <t>rava dosa</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -6789,22 +6795,22 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>145</v>
+        <v>137.4166666666667</v>
       </c>
       <c r="D267" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E267" t="n">
-        <v>5.5</v>
+        <v>2.291666666666667</v>
       </c>
       <c r="F267" t="n">
-        <v>23</v>
+        <v>24.25</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>restaurant paneer tikka masala</t>
+          <t>nirvanaah chocolate sundae</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -6813,22 +6819,22 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>230</v>
+        <v>437</v>
       </c>
       <c r="D268" t="n">
-        <v>11</v>
+        <v>5.99</v>
       </c>
       <c r="E268" t="n">
-        <v>17</v>
+        <v>22.64</v>
       </c>
       <c r="F268" t="n">
-        <v>5</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>chana masala sabji with ghee</t>
+          <t>strawberry blueberry smoothie</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -6837,22 +6843,22 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>256.5</v>
+        <v>228</v>
       </c>
       <c r="D269" t="n">
-        <v>12.75</v>
+        <v>8.324999999999999</v>
       </c>
       <c r="E269" t="n">
-        <v>5.0625</v>
+        <v>1.5</v>
       </c>
       <c r="F269" t="n">
-        <v>12.375</v>
+        <v>42.125</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>rava dosa</t>
+          <t>brinjal sambar</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -6861,22 +6867,22 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>137.4166666666667</v>
+        <v>195.75</v>
       </c>
       <c r="D270" t="n">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="E270" t="n">
-        <v>2.291666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="F270" t="n">
-        <v>24.25</v>
+        <v>30.125</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>nirvanaah chocolate sundae</t>
+          <t>bhindi pulao</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -6885,22 +6891,22 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>437</v>
+        <v>496.5665236051502</v>
       </c>
       <c r="D271" t="n">
-        <v>5.99</v>
+        <v>9.656652360515022</v>
       </c>
       <c r="E271" t="n">
-        <v>22.64</v>
+        <v>24.89270386266094</v>
       </c>
       <c r="F271" t="n">
-        <v>54.1</v>
+        <v>58.15450643776824</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>strawberry blueberry smoothie</t>
+          <t>masala masoor</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -6909,22 +6915,22 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>228</v>
+        <v>276.17</v>
       </c>
       <c r="D272" t="n">
-        <v>8.324999999999999</v>
+        <v>19.235</v>
       </c>
       <c r="E272" t="n">
-        <v>1.5</v>
+        <v>4.66</v>
       </c>
       <c r="F272" t="n">
-        <v>42.125</v>
+        <v>36.925</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>brinjal sambar</t>
+          <t>green peas pulao</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -6933,22 +6939,22 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>195.75</v>
+        <v>322.7467811158798</v>
       </c>
       <c r="D273" t="n">
-        <v>8</v>
+        <v>8.154506437768241</v>
       </c>
       <c r="E273" t="n">
-        <v>4.5</v>
+        <v>8.798283261802576</v>
       </c>
       <c r="F273" t="n">
-        <v>30.125</v>
+        <v>50.42918454935622</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>bhindi pulao</t>
+          <t>apple pumpkin smoothie</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -6957,22 +6963,22 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>496.5665236051502</v>
+        <v>196.125</v>
       </c>
       <c r="D274" t="n">
-        <v>9.656652360515022</v>
+        <v>6.5625</v>
       </c>
       <c r="E274" t="n">
-        <v>24.89270386266094</v>
+        <v>0.5</v>
       </c>
       <c r="F274" t="n">
-        <v>58.15450643776824</v>
+        <v>41.4375</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>masala masoor</t>
+          <t>sprouts khichdi</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -6981,22 +6987,22 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>276.17</v>
+        <v>398.325</v>
       </c>
       <c r="D275" t="n">
-        <v>19.235</v>
+        <v>6.275</v>
       </c>
       <c r="E275" t="n">
-        <v>4.66</v>
+        <v>17.6</v>
       </c>
       <c r="F275" t="n">
-        <v>36.925</v>
+        <v>53.825</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>green peas pulao</t>
+          <t>goji berry pear smoothie</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -7005,22 +7011,22 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>322.7467811158798</v>
+        <v>285.875</v>
       </c>
       <c r="D276" t="n">
-        <v>8.154506437768241</v>
+        <v>2.0625</v>
       </c>
       <c r="E276" t="n">
-        <v>8.798283261802576</v>
+        <v>6.625</v>
       </c>
       <c r="F276" t="n">
-        <v>50.42918454935622</v>
+        <v>53.5625</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>apple pumpkin smoothie</t>
+          <t>millet idli</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -7029,22 +7035,22 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>196.125</v>
+        <v>82.66499999999999</v>
       </c>
       <c r="D277" t="n">
-        <v>6.5625</v>
+        <v>3.3</v>
       </c>
       <c r="E277" t="n">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="F277" t="n">
-        <v>41.4375</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>sprouts khichdi</t>
+          <t>apple pear smoothie</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -7053,46 +7059,46 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>398.325</v>
+        <v>245</v>
       </c>
       <c r="D278" t="n">
-        <v>6.275</v>
+        <v>6.5</v>
       </c>
       <c r="E278" t="n">
-        <v>17.6</v>
+        <v>1</v>
       </c>
       <c r="F278" t="n">
-        <v>53.825</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>goji berry pear smoothie</t>
+          <t>rajma</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>1 serving</t>
+          <t>1 cup</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>285.875</v>
+        <v>612</v>
       </c>
       <c r="D279" t="n">
-        <v>2.0625</v>
+        <v>43.4</v>
       </c>
       <c r="E279" t="n">
-        <v>6.625</v>
+        <v>1.5</v>
       </c>
       <c r="F279" t="n">
-        <v>53.5625</v>
+        <v>110.4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>millet idli</t>
+          <t>ghee rajma sabji</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -7101,190 +7107,190 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>82.66499999999999</v>
+        <v>155.9166666666667</v>
       </c>
       <c r="D280" t="n">
-        <v>3.3</v>
+        <v>12.58333333333333</v>
       </c>
       <c r="E280" t="n">
-        <v>0.96</v>
+        <v>3.5</v>
       </c>
       <c r="F280" t="n">
-        <v>14.7</v>
+        <v>18.91666666666667</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>apple pear smoothie</t>
+          <t>murmura chivda</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>1 serving</t>
+          <t>1 cup</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="D281" t="n">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="E281" t="n">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="F281" t="n">
-        <v>49.5</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>rajma</t>
+          <t>whole wheat pizza crust</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>1 cup</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>612</v>
+        <v>390</v>
       </c>
       <c r="D282" t="n">
-        <v>43.4</v>
+        <v>12</v>
       </c>
       <c r="E282" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="F282" t="n">
-        <v>110.4</v>
+        <v>78</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ghee rajma sabji</t>
+          <t>firm tofu</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>1 serving</t>
+          <t>1 block</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>155.9166666666667</v>
+        <v>320</v>
       </c>
       <c r="D283" t="n">
-        <v>12.58333333333333</v>
+        <v>40</v>
       </c>
       <c r="E283" t="n">
-        <v>3.5</v>
+        <v>20</v>
       </c>
       <c r="F283" t="n">
-        <v>18.91666666666667</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>murmura chivda</t>
+          <t>filter coffee mocha</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>1 cup</t>
+          <t>1 serving</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>113</v>
+        <v>94.2</v>
       </c>
       <c r="D284" t="n">
-        <v>1.2</v>
+        <v>1.005</v>
       </c>
       <c r="E284" t="n">
-        <v>7.6</v>
+        <v>1.675</v>
       </c>
       <c r="F284" t="n">
-        <v>9.9</v>
+        <v>57.86</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>whole wheat pizza crust</t>
+          <t>indian style vegan tofu pizza</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1 serving</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="D285" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E285" t="n">
-        <v>6</v>
+        <v>14.5</v>
       </c>
       <c r="F285" t="n">
-        <v>78</v>
+        <v>54.75</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>firm tofu</t>
+          <t>caramel popcorn with cashews</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>1 block</t>
+          <t>0.33 cup</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="D286" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E286" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F286" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>filter coffee mocha</t>
+          <t>skinny popcorn</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>1 serving</t>
+          <t>1 cup</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>94.2</v>
+        <v>40</v>
       </c>
       <c r="D287" t="n">
-        <v>1.005</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="E287" t="n">
-        <v>1.675</v>
+        <v>2.67</v>
       </c>
       <c r="F287" t="n">
-        <v>57.86</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>indian style vegan tofu pizza</t>
+          <t>kala chana onion tomato salad</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -7293,94 +7299,94 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>424</v>
+        <v>75.845</v>
       </c>
       <c r="D288" t="n">
-        <v>25</v>
+        <v>5.657500000000001</v>
       </c>
       <c r="E288" t="n">
-        <v>14.5</v>
+        <v>0.99</v>
       </c>
       <c r="F288" t="n">
-        <v>54.75</v>
+        <v>10.7075</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>caramel popcorn with cashews</t>
+          <t>high protein soya chunks dosa</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>0.33 cup</t>
+          <t>1 serving</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>120</v>
+        <v>104.7083333333333</v>
       </c>
       <c r="D289" t="n">
-        <v>1</v>
+        <v>4.3125</v>
       </c>
       <c r="E289" t="n">
-        <v>6</v>
+        <v>2.291666666666667</v>
       </c>
       <c r="F289" t="n">
-        <v>16</v>
+        <v>15.27083333333333</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>skinny popcorn</t>
+          <t>ragada pattice</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>1 cup</t>
+          <t>1 serving</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>40</v>
+        <v>300.2916666666667</v>
       </c>
       <c r="D290" t="n">
-        <v>0.5329999999999999</v>
+        <v>13.95833333333333</v>
       </c>
       <c r="E290" t="n">
-        <v>2.67</v>
+        <v>1.875</v>
       </c>
       <c r="F290" t="n">
-        <v>4</v>
+        <v>64.66666666666667</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>kala chana onion tomato salad</t>
+          <t>spring onion</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>1 serving</t>
+          <t>1 stalk</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>75.845</v>
+        <v>4.8</v>
       </c>
       <c r="D291" t="n">
-        <v>5.657500000000001</v>
+        <v>0.3</v>
       </c>
       <c r="E291" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F291" t="n">
-        <v>10.7075</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>high protein soya chunks dosa</t>
+          <t>spring onion tambali</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -7389,22 +7395,22 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>104.7083333333333</v>
+        <v>62.625</v>
       </c>
       <c r="D292" t="n">
-        <v>4.3125</v>
+        <v>2.5625</v>
       </c>
       <c r="E292" t="n">
-        <v>2.291666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="F292" t="n">
-        <v>15.27083333333333</v>
+        <v>5.625</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ragada pattice</t>
+          <t>goji berry apple smoothie</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -7413,46 +7419,46 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>300.2916666666667</v>
+        <v>222.75</v>
       </c>
       <c r="D293" t="n">
-        <v>13.95833333333333</v>
+        <v>2.125</v>
       </c>
       <c r="E293" t="n">
-        <v>1.875</v>
+        <v>6.75</v>
       </c>
       <c r="F293" t="n">
-        <v>64.66666666666667</v>
+        <v>34.125</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>spring onion</t>
+          <t>sunfeast 5 grain digestive</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>1 stalk</t>
+          <t>2 biscuits</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>4.8</v>
+        <v>97</v>
       </c>
       <c r="D294" t="n">
-        <v>0.3</v>
+        <v>7.7</v>
       </c>
       <c r="E294" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="F294" t="n">
-        <v>1.1</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>spring onion tambali</t>
+          <t>vegan blueberry no bake cheesecake</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -7461,286 +7467,286 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>62.625</v>
+        <v>330.7616666666667</v>
       </c>
       <c r="D295" t="n">
-        <v>2.5625</v>
+        <v>2.776666666666667</v>
       </c>
       <c r="E295" t="n">
-        <v>3.5</v>
+        <v>5.388333333333333</v>
       </c>
       <c r="F295" t="n">
-        <v>5.625</v>
+        <v>37.52333333333333</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>goji berry apple smoothie</t>
+          <t>see's candies assorted</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>1 serving</t>
+          <t>2 pieces</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>222.75</v>
+        <v>180</v>
       </c>
       <c r="D296" t="n">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="E296" t="n">
-        <v>6.75</v>
+        <v>11</v>
       </c>
       <c r="F296" t="n">
-        <v>34.125</v>
+        <v>23</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>sunfeast 5 grain digestive</t>
+          <t>jalapeno makhana</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2 biscuits</t>
+          <t>1 cup</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D297" t="n">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="E297" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="F297" t="n">
-        <v>13.3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>vegan blueberry no bake cheesecake</t>
+          <t>all purpose flour</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>1 serving</t>
+          <t>1 cup</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>330.7616666666667</v>
+        <v>455</v>
       </c>
       <c r="D298" t="n">
-        <v>2.776666666666667</v>
+        <v>12</v>
       </c>
       <c r="E298" t="n">
-        <v>5.388333333333333</v>
+        <v>1.2</v>
       </c>
       <c r="F298" t="n">
-        <v>37.52333333333333</v>
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>see's candies assorted</t>
+          <t>madatha kaja</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2 pieces</t>
+          <t>1 serving</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>180</v>
+        <v>617</v>
       </c>
       <c r="D299" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E299" t="n">
-        <v>11</v>
+        <v>33.25</v>
       </c>
       <c r="F299" t="n">
-        <v>23</v>
+        <v>203.75</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>jalapeno makhana</t>
+          <t>planet oat creamer</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>1 cup</t>
+          <t>1 tbsp</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="D300" t="n">
         <v>0</v>
       </c>
       <c r="E300" t="n">
+        <v>1</v>
+      </c>
+      <c r="F300" t="n">
         <v>4</v>
-      </c>
-      <c r="F300" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>all purpose flour</t>
+          <t>veer ginger garlic paste</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>1 cup</t>
+          <t>1 tbsp</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>455</v>
+        <v>170</v>
       </c>
       <c r="D301" t="n">
+        <v>4</v>
+      </c>
+      <c r="E301" t="n">
+        <v>8</v>
+      </c>
+      <c r="F301" t="n">
         <v>12</v>
-      </c>
-      <c r="E301" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F301" t="n">
-        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>madatha kaja</t>
+          <t>mtr tomato rice powder</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>1 serving</t>
+          <t>1 pack</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>617</v>
+        <v>40.4</v>
       </c>
       <c r="D302" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="E302" t="n">
-        <v>33.25</v>
+        <v>1.2</v>
       </c>
       <c r="F302" t="n">
-        <v>203.75</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>planet oat creamer</t>
+          <t>tomato millet with powder</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>1 tbsp</t>
+          <t>1 serving</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>25</v>
+        <v>323.3333333333333</v>
       </c>
       <c r="D303" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E303" t="n">
-        <v>1</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="F303" t="n">
-        <v>4</v>
+        <v>42.33333333333334</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>veer ginger garlic paste</t>
+          <t>coffee with oat creamer</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>1 tbsp</t>
+          <t>1 serving</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="D304" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E304" t="n">
+        <v>2</v>
+      </c>
+      <c r="F304" t="n">
         <v>8</v>
-      </c>
-      <c r="F304" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>mtr tomato rice powder</t>
+          <t>red apple pear orange smoothie no yogurt</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>1 pack</t>
+          <t>1 serving</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>40.4</v>
+        <v>253.75</v>
       </c>
       <c r="D305" t="n">
-        <v>0.6</v>
+        <v>1.125</v>
       </c>
       <c r="E305" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="F305" t="n">
-        <v>6.8</v>
+        <v>58.625</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>tomato millet with powder</t>
+          <t>mtr lemon rice powder</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>1 serving</t>
+          <t>1 pack</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>323.3333333333333</v>
+        <v>57</v>
       </c>
       <c r="D306" t="n">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="E306" t="n">
-        <v>11.66666666666667</v>
+        <v>2.6</v>
       </c>
       <c r="F306" t="n">
-        <v>42.33333333333334</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>coffee with oat creamer</t>
+          <t>capsicum besan sabji</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -7749,87 +7755,15 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>50</v>
+        <v>263.48</v>
       </c>
       <c r="D307" t="n">
-        <v>0</v>
+        <v>19.18</v>
       </c>
       <c r="E307" t="n">
-        <v>2</v>
+        <v>9.98</v>
       </c>
       <c r="F307" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>red apple pear orange smoothie no yogurt</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>1 serving</t>
-        </is>
-      </c>
-      <c r="C308" t="n">
-        <v>253.75</v>
-      </c>
-      <c r="D308" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="E308" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="F308" t="n">
-        <v>58.625</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>mtr lemon rice powder</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>1 pack</t>
-        </is>
-      </c>
-      <c r="C309" t="n">
-        <v>57</v>
-      </c>
-      <c r="D309" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E309" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="F309" t="n">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>capsicum besan sabji</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>1 serving</t>
-        </is>
-      </c>
-      <c r="C310" t="n">
-        <v>263.48</v>
-      </c>
-      <c r="D310" t="n">
-        <v>19.18</v>
-      </c>
-      <c r="E310" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="F310" t="n">
         <v>25.24</v>
       </c>
     </row>

--- a/item_calorie_dict.xlsx
+++ b/item_calorie_dict.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F307"/>
+  <dimension ref="A1:F308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4322,17 +4322,25 @@
           <t>1 medium</t>
         </is>
       </c>
-      <c r="C164" t="n">
-        <v>30</v>
-      </c>
-      <c r="D164" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="F164" t="n">
-        <v>5.4</v>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>5.4</t>
+        </is>
       </c>
     </row>
     <row r="165">
@@ -7765,6 +7773,30 @@
       </c>
       <c r="F307" t="n">
         <v>25.24</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>pasta seasoning</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1 tbsp</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
